--- a/content/post/estrutura_horizontal/dados_fitossociologia.xlsx
+++ b/content/post/estrutura_horizontal/dados_fitossociologia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\mensura-r\content\post\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio.costa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAA19D-8D1A-421D-B6F6-36E9B29F52BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08832DF-B8E2-4EF5-A5D8-34EE3CFFCDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6F64BFCF-8501-43AF-856C-AF702432539E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F64BFCF-8501-43AF-856C-AF702432539E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Altura</t>
-  </si>
-  <si>
-    <t>Família</t>
-  </si>
-  <si>
-    <t>Espécie</t>
   </si>
   <si>
     <t>Dilleniaceae</t>
@@ -313,6 +307,12 @@
   <si>
     <t>DAP</t>
   </si>
+  <si>
+    <t>Especie</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
 </sst>
 </file>
 
@@ -360,17 +360,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,7 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA3E67-B05E-4BE3-8308-E9A1ED02CAF6}">
   <dimension ref="A1:F542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -705,16 +707,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,10 +733,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,10 +753,10 @@
         <v>3.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,10 +793,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,10 +813,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,10 +833,10 @@
         <v>5.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,10 +853,10 @@
         <v>4.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,10 +873,10 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,10 +893,10 @@
         <v>4.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,10 +913,10 @@
         <v>2.5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,10 +933,10 @@
         <v>6.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,10 +953,10 @@
         <v>6.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,10 +973,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,10 +993,10 @@
         <v>3.5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,10 +1013,10 @@
         <v>3.5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,10 +1033,10 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,10 +1053,10 @@
         <v>2.5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,10 +1073,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,10 +1133,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,10 +1173,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,10 +1193,10 @@
         <v>4.5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,10 +1213,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,10 +1233,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,10 +1253,10 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,10 +1273,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,10 +1293,10 @@
         <v>2.5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,10 +1333,10 @@
         <v>3.5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,10 +1373,10 @@
         <v>2.5</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,10 +1393,10 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,10 +1413,10 @@
         <v>2.5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,10 +1453,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,10 +1473,10 @@
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,10 +1493,10 @@
         <v>3.5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,10 +1513,10 @@
         <v>3.5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,10 +1533,10 @@
         <v>3.5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,10 +1553,10 @@
         <v>3.5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,10 +1573,10 @@
         <v>4</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,10 +1613,10 @@
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,10 +1633,10 @@
         <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,10 +1673,10 @@
         <v>3.5</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,10 +1693,10 @@
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,10 +1733,10 @@
         <v>4.5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,10 +1753,10 @@
         <v>2.5</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,10 +1773,10 @@
         <v>2.5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,10 +1813,10 @@
         <v>2.5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,10 +1833,10 @@
         <v>2.5</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,10 +1853,10 @@
         <v>2.5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,10 +1873,10 @@
         <v>2.5</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,10 +1893,10 @@
         <v>2.5</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,10 +1913,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,10 +1933,10 @@
         <v>4.5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,10 +1973,10 @@
         <v>2.5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,10 +1993,10 @@
         <v>2.5</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,10 +2013,10 @@
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,10 +2033,10 @@
         <v>4.5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,10 +2053,10 @@
         <v>3.5</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,10 +2073,10 @@
         <v>2.5</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,10 +2113,10 @@
         <v>4</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,10 +2133,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,10 +2153,10 @@
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,10 +2173,10 @@
         <v>5</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,10 +2193,10 @@
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2211,10 +2213,10 @@
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2251,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,10 +2273,10 @@
         <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,10 +2293,10 @@
         <v>5</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2331,10 +2333,10 @@
         <v>5</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,10 +2373,10 @@
         <v>2.5</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,10 +2393,10 @@
         <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,10 +2433,10 @@
         <v>4</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,10 +2453,10 @@
         <v>2.5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,10 +2473,10 @@
         <v>2.5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,10 +2513,10 @@
         <v>5</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,10 +2533,10 @@
         <v>5.5</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,10 +2593,10 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,10 +2613,10 @@
         <v>7</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,10 +2633,10 @@
         <v>2.5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,10 +2653,10 @@
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,10 +2693,10 @@
         <v>5</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,10 +2713,10 @@
         <v>2.5</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,10 +2753,10 @@
         <v>8</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,10 +2773,10 @@
         <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,10 +2793,10 @@
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2811,10 +2813,10 @@
         <v>3.5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,10 +2833,10 @@
         <v>2.5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2851,10 +2853,10 @@
         <v>2.5</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,10 +2913,10 @@
         <v>3</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,10 +2933,10 @@
         <v>6</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,10 +2953,10 @@
         <v>6</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,10 +2973,10 @@
         <v>3.5</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,10 +2993,10 @@
         <v>3.5</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,10 +3013,10 @@
         <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,10 +3033,10 @@
         <v>16</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,10 +3053,10 @@
         <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,10 +3073,10 @@
         <v>4.5</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,10 +3093,10 @@
         <v>7</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3111,10 +3113,10 @@
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,10 +3133,10 @@
         <v>8</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,10 +3153,10 @@
         <v>16</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3171,10 +3173,10 @@
         <v>5</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,10 +3193,10 @@
         <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3211,10 +3213,10 @@
         <v>13</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,10 +3233,10 @@
         <v>7</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3251,10 +3253,10 @@
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,10 +3273,10 @@
         <v>12</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3291,10 +3293,10 @@
         <v>13</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3311,10 +3313,10 @@
         <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,10 +3333,10 @@
         <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3351,10 +3353,10 @@
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,10 +3373,10 @@
         <v>12</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3391,10 +3393,10 @@
         <v>8</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3411,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3431,10 +3433,10 @@
         <v>4</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3451,10 +3453,10 @@
         <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,10 +3473,10 @@
         <v>2.5</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,10 +3493,10 @@
         <v>7</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,10 +3513,10 @@
         <v>4</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3531,10 +3533,10 @@
         <v>7</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3551,10 +3553,10 @@
         <v>5.5</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3571,10 +3573,10 @@
         <v>3.5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3591,10 +3593,10 @@
         <v>4</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3611,10 +3613,10 @@
         <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,10 +3633,10 @@
         <v>6</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,10 +3653,10 @@
         <v>5</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,10 +3673,10 @@
         <v>7</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3691,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3711,10 +3713,10 @@
         <v>7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3731,10 +3733,10 @@
         <v>4</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,10 +3753,10 @@
         <v>5</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3771,10 +3773,10 @@
         <v>5</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,10 +3793,10 @@
         <v>2.5</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3811,10 +3813,10 @@
         <v>3</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3831,10 +3833,10 @@
         <v>8</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3851,10 +3853,10 @@
         <v>8</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,10 +3873,10 @@
         <v>3</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,10 +3893,10 @@
         <v>8</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,10 +3913,10 @@
         <v>6</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,10 +3933,10 @@
         <v>3.5</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,10 +3953,10 @@
         <v>3</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3971,10 +3973,10 @@
         <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3991,10 +3993,10 @@
         <v>8</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4011,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4031,10 +4033,10 @@
         <v>8</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4051,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4071,10 +4073,10 @@
         <v>3</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4091,10 +4093,10 @@
         <v>7</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4111,10 +4113,10 @@
         <v>4</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4131,10 +4133,10 @@
         <v>8</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4151,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4171,10 +4173,10 @@
         <v>8</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4191,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,10 +4213,10 @@
         <v>3</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4231,10 +4233,10 @@
         <v>8</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4251,10 +4253,10 @@
         <v>8</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4271,10 +4273,10 @@
         <v>8</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4291,10 +4293,10 @@
         <v>3.5</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4311,10 +4313,10 @@
         <v>4.5</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4331,10 +4333,10 @@
         <v>3.5</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4351,10 +4353,10 @@
         <v>3.5</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4371,10 +4373,10 @@
         <v>3.5</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4411,10 +4413,10 @@
         <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4431,10 +4433,10 @@
         <v>28.5</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4451,10 +4453,10 @@
         <v>2</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4471,10 +4473,10 @@
         <v>10</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4491,10 +4493,10 @@
         <v>10</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4511,10 +4513,10 @@
         <v>3.5</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4531,10 +4533,10 @@
         <v>4</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4551,10 +4553,10 @@
         <v>3.5</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4571,10 +4573,10 @@
         <v>4.5</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4591,10 +4593,10 @@
         <v>12</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4611,10 +4613,10 @@
         <v>6</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4631,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4651,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4671,10 +4673,10 @@
         <v>7</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4691,10 +4693,10 @@
         <v>8</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4711,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4731,10 +4733,10 @@
         <v>6</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4751,10 +4753,10 @@
         <v>8</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4771,10 +4773,10 @@
         <v>7.5</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4791,10 +4793,10 @@
         <v>7</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4811,10 +4813,10 @@
         <v>7</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4831,10 +4833,10 @@
         <v>5</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4851,10 +4853,10 @@
         <v>8</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4871,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4891,10 +4893,10 @@
         <v>6</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,10 +4913,10 @@
         <v>7</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4931,10 +4933,10 @@
         <v>12</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -4951,10 +4953,10 @@
         <v>6</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4971,10 +4973,10 @@
         <v>7</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4991,10 +4993,10 @@
         <v>9</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5011,10 +5013,10 @@
         <v>7</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5031,10 +5033,10 @@
         <v>2.5</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5051,10 +5053,10 @@
         <v>6</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5071,10 +5073,10 @@
         <v>8</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5091,10 +5093,10 @@
         <v>32</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5111,10 +5113,10 @@
         <v>9</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5131,10 +5133,10 @@
         <v>3</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5151,10 +5153,10 @@
         <v>6</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5171,10 +5173,10 @@
         <v>4.5</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5191,10 +5193,10 @@
         <v>8</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5211,10 +5213,10 @@
         <v>2.5</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5231,10 +5233,10 @@
         <v>3</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5251,10 +5253,10 @@
         <v>4</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5271,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -5291,10 +5293,10 @@
         <v>6</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -5311,10 +5313,10 @@
         <v>8</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -5331,10 +5333,10 @@
         <v>2.5</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -5351,10 +5353,10 @@
         <v>4</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -5371,10 +5373,10 @@
         <v>6</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -5391,10 +5393,10 @@
         <v>3.5</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -5411,10 +5413,10 @@
         <v>4.5</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5431,10 +5433,10 @@
         <v>6</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -5451,10 +5453,10 @@
         <v>7</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -5471,10 +5473,10 @@
         <v>3.5</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -5491,10 +5493,10 @@
         <v>7</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -5511,10 +5513,10 @@
         <v>3</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -5531,10 +5533,10 @@
         <v>5</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -5551,10 +5553,10 @@
         <v>4.5</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -5571,10 +5573,10 @@
         <v>15</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -5591,10 +5593,10 @@
         <v>2.5</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -5611,10 +5613,10 @@
         <v>4.5</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -5631,10 +5633,10 @@
         <v>2.5</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -5651,10 +5653,10 @@
         <v>2.5</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -5671,10 +5673,10 @@
         <v>3.5</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -5691,10 +5693,10 @@
         <v>7</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5711,10 +5713,10 @@
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5731,10 +5733,10 @@
         <v>3.5</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5751,10 +5753,10 @@
         <v>3</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5771,10 +5773,10 @@
         <v>10</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5791,10 +5793,10 @@
         <v>7</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5811,10 +5813,10 @@
         <v>6</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5831,10 +5833,10 @@
         <v>7</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5851,10 +5853,10 @@
         <v>3</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5871,10 +5873,10 @@
         <v>8</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5891,10 +5893,10 @@
         <v>3.5</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -5911,10 +5913,10 @@
         <v>8.5</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5931,10 +5933,10 @@
         <v>2.5</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5951,10 +5953,10 @@
         <v>5</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -5971,10 +5973,10 @@
         <v>12</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5991,10 +5993,10 @@
         <v>2.5</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6011,10 +6013,10 @@
         <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -6031,10 +6033,10 @@
         <v>6</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -6051,10 +6053,10 @@
         <v>7</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -6071,10 +6073,10 @@
         <v>6.5</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -6091,10 +6093,10 @@
         <v>3.5</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -6111,10 +6113,10 @@
         <v>6</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6131,10 +6133,10 @@
         <v>5</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -6151,10 +6153,10 @@
         <v>4.5</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6171,10 +6173,10 @@
         <v>2.5</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -6191,10 +6193,10 @@
         <v>6.5</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -6211,10 +6213,10 @@
         <v>3.5</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -6231,10 +6233,10 @@
         <v>5</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -6251,10 +6253,10 @@
         <v>2</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -6271,10 +6273,10 @@
         <v>5</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -6291,10 +6293,10 @@
         <v>2.5</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -6311,10 +6313,10 @@
         <v>6</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -6331,10 +6333,10 @@
         <v>15</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -6351,10 +6353,10 @@
         <v>6</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -6371,10 +6373,10 @@
         <v>8</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -6391,10 +6393,10 @@
         <v>4</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,10 +6413,10 @@
         <v>8</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -6431,10 +6433,10 @@
         <v>16</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -6451,10 +6453,10 @@
         <v>10</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -6471,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -6491,10 +6493,10 @@
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -6511,10 +6513,10 @@
         <v>2.5</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -6531,10 +6533,10 @@
         <v>6</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -6551,10 +6553,10 @@
         <v>6</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -6571,10 +6573,10 @@
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -6591,10 +6593,10 @@
         <v>3</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -6611,10 +6613,10 @@
         <v>4</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -6631,10 +6633,10 @@
         <v>3.5</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -6651,10 +6653,10 @@
         <v>8</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,10 +6673,10 @@
         <v>6</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -6691,10 +6693,10 @@
         <v>4</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -6711,10 +6713,10 @@
         <v>4</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -6731,10 +6733,10 @@
         <v>8</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,10 +6753,10 @@
         <v>8</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -6771,10 +6773,10 @@
         <v>8</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -6791,10 +6793,10 @@
         <v>2.5</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -6811,10 +6813,10 @@
         <v>2.5</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -6831,10 +6833,10 @@
         <v>5</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -6851,10 +6853,10 @@
         <v>6</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -6871,10 +6873,10 @@
         <v>16</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -6891,10 +6893,10 @@
         <v>3.5</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,10 +6913,10 @@
         <v>6.5</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,10 +6933,10 @@
         <v>6.5</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,10 +6953,10 @@
         <v>3.5</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,10 +6973,10 @@
         <v>14.5</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,10 +6993,10 @@
         <v>6.5</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,10 +7013,10 @@
         <v>6</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -7031,10 +7033,10 @@
         <v>9</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -7051,10 +7053,10 @@
         <v>9</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -7071,10 +7073,10 @@
         <v>15</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -7091,10 +7093,10 @@
         <v>5</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -7111,10 +7113,10 @@
         <v>2</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -7131,10 +7133,10 @@
         <v>11</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -7151,10 +7153,10 @@
         <v>3.5</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -7171,10 +7173,10 @@
         <v>14</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -7191,10 +7193,10 @@
         <v>6</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -7211,10 +7213,10 @@
         <v>4.5</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -7231,10 +7233,10 @@
         <v>2</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -7251,10 +7253,10 @@
         <v>8</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -7271,10 +7273,10 @@
         <v>7</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -7291,10 +7293,10 @@
         <v>6</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -7311,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -7331,10 +7333,10 @@
         <v>10</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -7351,10 +7353,10 @@
         <v>2.5</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -7371,10 +7373,10 @@
         <v>3</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -7391,10 +7393,10 @@
         <v>2.5</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -7411,10 +7413,10 @@
         <v>4</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -7431,10 +7433,10 @@
         <v>7</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -7451,10 +7453,10 @@
         <v>10</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -7471,10 +7473,10 @@
         <v>9</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -7491,10 +7493,10 @@
         <v>5</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -7511,10 +7513,10 @@
         <v>5</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -7531,10 +7533,10 @@
         <v>5</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -7551,10 +7553,10 @@
         <v>5</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -7571,10 +7573,10 @@
         <v>6</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -7591,10 +7593,10 @@
         <v>4.5</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -7611,10 +7613,10 @@
         <v>5</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -7631,10 +7633,10 @@
         <v>6</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -7651,10 +7653,10 @@
         <v>6</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -7671,10 +7673,10 @@
         <v>5</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -7691,10 +7693,10 @@
         <v>5</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -7711,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -7731,10 +7733,10 @@
         <v>6</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -7751,10 +7753,10 @@
         <v>12</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -7771,10 +7773,10 @@
         <v>2.5</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -7791,10 +7793,10 @@
         <v>3.5</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -7811,10 +7813,10 @@
         <v>3.5</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -7831,10 +7833,10 @@
         <v>4.5</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -7851,10 +7853,10 @@
         <v>2.5</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -7871,10 +7873,10 @@
         <v>6.5</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -7891,10 +7893,10 @@
         <v>4</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -7911,10 +7913,10 @@
         <v>6</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -7931,10 +7933,10 @@
         <v>3</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -7951,10 +7953,10 @@
         <v>6</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -7971,10 +7973,10 @@
         <v>3</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -7991,10 +7993,10 @@
         <v>4</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -8011,10 +8013,10 @@
         <v>2.5</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -8031,10 +8033,10 @@
         <v>4</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -8051,10 +8053,10 @@
         <v>3.5</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -8071,10 +8073,10 @@
         <v>5</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -8091,10 +8093,10 @@
         <v>7</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -8111,10 +8113,10 @@
         <v>4.5</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -8131,10 +8133,10 @@
         <v>3.5</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -8151,10 +8153,10 @@
         <v>2.5</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,10 +8173,10 @@
         <v>9</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -8191,10 +8193,10 @@
         <v>4.5</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -8211,10 +8213,10 @@
         <v>8</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -8231,10 +8233,10 @@
         <v>6</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -8251,10 +8253,10 @@
         <v>6</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -8271,10 +8273,10 @@
         <v>5</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -8291,10 +8293,10 @@
         <v>8</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -8311,10 +8313,10 @@
         <v>5</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,10 +8333,10 @@
         <v>4</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -8351,10 +8353,10 @@
         <v>2</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -8371,10 +8373,10 @@
         <v>2.5</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -8391,10 +8393,10 @@
         <v>9</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -8411,10 +8413,10 @@
         <v>5</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -8431,10 +8433,10 @@
         <v>3</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -8451,10 +8453,10 @@
         <v>2.5</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -8471,10 +8473,10 @@
         <v>2.5</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -8491,10 +8493,10 @@
         <v>4</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -8511,10 +8513,10 @@
         <v>6</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -8531,10 +8533,10 @@
         <v>6</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -8551,10 +8553,10 @@
         <v>2.5</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -8571,10 +8573,10 @@
         <v>2.5</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -8591,10 +8593,10 @@
         <v>7</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -8611,10 +8613,10 @@
         <v>3.5</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -8631,10 +8633,10 @@
         <v>3.5</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -8651,10 +8653,10 @@
         <v>3.5</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -8671,10 +8673,10 @@
         <v>2.5</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -8691,10 +8693,10 @@
         <v>3</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -8711,10 +8713,10 @@
         <v>6</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -8731,10 +8733,10 @@
         <v>4.5</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -8751,10 +8753,10 @@
         <v>6</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,10 +8773,10 @@
         <v>3.5</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -8791,10 +8793,10 @@
         <v>2</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -8811,10 +8813,10 @@
         <v>2.5</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -8831,10 +8833,10 @@
         <v>33</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -8851,10 +8853,10 @@
         <v>3</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -8871,10 +8873,10 @@
         <v>3</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -8891,10 +8893,10 @@
         <v>2.5</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -8911,10 +8913,10 @@
         <v>2.5</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -8931,10 +8933,10 @@
         <v>4.5</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -8951,10 +8953,10 @@
         <v>2.5</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -8971,10 +8973,10 @@
         <v>3</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -8991,10 +8993,10 @@
         <v>6</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -9011,10 +9013,10 @@
         <v>4.5</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -9031,10 +9033,10 @@
         <v>5</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -9051,10 +9053,10 @@
         <v>2.5</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -9071,10 +9073,10 @@
         <v>3.5</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -9091,10 +9093,10 @@
         <v>3.5</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -9111,10 +9113,10 @@
         <v>2.5</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -9131,10 +9133,10 @@
         <v>3.5</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -9151,10 +9153,10 @@
         <v>3.5</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -9171,10 +9173,10 @@
         <v>5</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -9191,10 +9193,10 @@
         <v>2.5</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -9211,10 +9213,10 @@
         <v>3.5</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -9231,10 +9233,10 @@
         <v>4.5</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -9251,10 +9253,10 @@
         <v>4</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -9271,10 +9273,10 @@
         <v>4.5</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -9291,10 +9293,10 @@
         <v>4.5</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -9311,10 +9313,10 @@
         <v>7.5</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -9331,10 +9333,10 @@
         <v>4</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -9351,10 +9353,10 @@
         <v>4</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -9371,10 +9373,10 @@
         <v>3</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -9391,10 +9393,10 @@
         <v>7.5</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -9411,10 +9413,10 @@
         <v>2.5</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -9431,10 +9433,10 @@
         <v>5.5</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -9451,10 +9453,10 @@
         <v>5.5</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -9471,10 +9473,10 @@
         <v>2.5</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -9491,10 +9493,10 @@
         <v>4.5</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -9511,10 +9513,10 @@
         <v>8</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -9531,10 +9533,10 @@
         <v>6</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -9551,10 +9553,10 @@
         <v>6</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -9571,10 +9573,10 @@
         <v>4</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -9591,10 +9593,10 @@
         <v>2.5</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -9611,10 +9613,10 @@
         <v>6</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -9631,10 +9633,10 @@
         <v>4.5</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -9651,10 +9653,10 @@
         <v>6.5</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -9671,10 +9673,10 @@
         <v>2.5</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -9691,10 +9693,10 @@
         <v>7</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -9711,10 +9713,10 @@
         <v>7</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -9731,10 +9733,10 @@
         <v>3</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -9751,10 +9753,10 @@
         <v>5</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -9771,10 +9773,10 @@
         <v>4</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -9791,10 +9793,10 @@
         <v>6.5</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -9811,10 +9813,10 @@
         <v>7.5</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -9831,10 +9833,10 @@
         <v>5</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -9851,10 +9853,10 @@
         <v>6</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,10 +9873,10 @@
         <v>2.5</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -9891,10 +9893,10 @@
         <v>2</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -9911,10 +9913,10 @@
         <v>6</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -9931,10 +9933,10 @@
         <v>5.5</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -9951,10 +9953,10 @@
         <v>5.5</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -9971,10 +9973,10 @@
         <v>11</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -9991,10 +9993,10 @@
         <v>7</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -10011,10 +10013,10 @@
         <v>6</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -10031,10 +10033,10 @@
         <v>7</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -10051,10 +10053,10 @@
         <v>5</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -10071,10 +10073,10 @@
         <v>5</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -10091,10 +10093,10 @@
         <v>3.5</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -10111,10 +10113,10 @@
         <v>11</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -10131,10 +10133,10 @@
         <v>12</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -10151,10 +10153,10 @@
         <v>4</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -10171,10 +10173,10 @@
         <v>6</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -10191,10 +10193,10 @@
         <v>6</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -10211,10 +10213,10 @@
         <v>2</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -10231,10 +10233,10 @@
         <v>6</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -10251,10 +10253,10 @@
         <v>7</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -10271,10 +10273,10 @@
         <v>7</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -10291,10 +10293,10 @@
         <v>13</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -10311,10 +10313,10 @@
         <v>7.5</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -10331,10 +10333,10 @@
         <v>5</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -10351,10 +10353,10 @@
         <v>9</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -10371,10 +10373,10 @@
         <v>4.5</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -10391,10 +10393,10 @@
         <v>5</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -10411,10 +10413,10 @@
         <v>2.5</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -10431,10 +10433,10 @@
         <v>7</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -10451,10 +10453,10 @@
         <v>8</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -10471,10 +10473,10 @@
         <v>4.5</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -10491,10 +10493,10 @@
         <v>4.5</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -10511,10 +10513,10 @@
         <v>9</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -10531,10 +10533,10 @@
         <v>2</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -10551,10 +10553,10 @@
         <v>6</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,10 +10573,10 @@
         <v>2</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -10591,10 +10593,10 @@
         <v>2</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -10611,10 +10613,10 @@
         <v>7</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -10631,10 +10633,10 @@
         <v>13</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -10651,10 +10653,10 @@
         <v>4</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -10671,10 +10673,10 @@
         <v>3.5</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -10691,10 +10693,10 @@
         <v>5</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -10711,10 +10713,10 @@
         <v>2</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -10731,10 +10733,10 @@
         <v>2.5</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -10751,10 +10753,10 @@
         <v>7.5</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -10771,10 +10773,10 @@
         <v>2.5</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -10791,10 +10793,10 @@
         <v>5.5</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -10811,10 +10813,10 @@
         <v>8.5</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -10831,10 +10833,10 @@
         <v>3</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -10851,10 +10853,10 @@
         <v>2.5</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -10871,10 +10873,10 @@
         <v>3</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -10891,10 +10893,10 @@
         <v>3</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -10911,10 +10913,10 @@
         <v>6</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -10931,10 +10933,10 @@
         <v>5</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -10951,10 +10953,10 @@
         <v>2</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -10971,10 +10973,10 @@
         <v>2.5</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -10991,10 +10993,10 @@
         <v>5</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -11011,10 +11013,10 @@
         <v>3.5</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -11031,10 +11033,10 @@
         <v>3</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -11051,10 +11053,10 @@
         <v>2.5</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -11071,10 +11073,10 @@
         <v>3.5</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -11091,10 +11093,10 @@
         <v>2.5</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -11111,10 +11113,10 @@
         <v>5.5</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -11131,10 +11133,10 @@
         <v>9</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -11151,10 +11153,10 @@
         <v>2.5</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -11171,10 +11173,10 @@
         <v>2</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -11191,10 +11193,10 @@
         <v>5</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -11211,10 +11213,10 @@
         <v>6.5</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -11231,10 +11233,10 @@
         <v>3.5</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -11251,10 +11253,10 @@
         <v>2.5</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -11271,10 +11273,10 @@
         <v>10</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -11291,10 +11293,10 @@
         <v>4.5</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -11311,10 +11313,10 @@
         <v>2.5</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -11331,10 +11333,10 @@
         <v>5</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -11351,10 +11353,10 @@
         <v>3.5</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -11371,10 +11373,10 @@
         <v>4</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -11391,10 +11393,10 @@
         <v>3</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -11411,10 +11413,10 @@
         <v>5</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -11431,10 +11433,10 @@
         <v>3</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -11451,10 +11453,10 @@
         <v>7</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -11471,10 +11473,10 @@
         <v>3.5</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -11491,10 +11493,10 @@
         <v>8.5</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -11511,10 +11513,10 @@
         <v>12</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -11531,10 +11533,10 @@
         <v>2.5</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
